--- a/Fire Emblem.xlsx
+++ b/Fire Emblem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\Insper\Ciencia dos Dados\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\Insper\Git\TrabalhodeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="419">
   <si>
     <t>Treinamento</t>
   </si>
@@ -870,460 +870,13 @@
   </si>
   <si>
     <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/fldyiaiqxd</t>
-  </si>
-  <si>
-    <t>edição especial e data de lançamento agitam os fãns de fire emblem warriors! https://t.co/nnfqhcpqjc https://t.co/vv9ctywtre</t>
-  </si>
-  <si>
-    <t>mi fire emblem favorito de gba. https://t.co/8efimr3tou</t>
-  </si>
-  <si>
-    <t>fire emblem warriors incluirá a sakura de fire emblem fates como jugable https://t.co/mktzra7cey</t>
-  </si>
-  <si>
-    <t>gente a jogabilidade dele é tipo fire emblem eu amo isso demais</t>
-  </si>
-  <si>
-    <t>fire emblem warriors permitirá sacrificar a resolução por melhor performance https://t.co/nk3snojgmx</t>
-  </si>
-  <si>
-    <t>@shadows_kilier ¿más fire emblem?</t>
-  </si>
-  <si>
-    <t>elise llegará a fire emblem warriors - levelup https://t.co/7visubrslf</t>
-  </si>
-  <si>
-    <t>venci uma batalha de uma hora no fire emblem, puta que los pariu</t>
-  </si>
-  <si>
-    <t>uuufire emblem heroes - quick ttle #feheroes https://t.co/ziyaflbv3i</t>
-  </si>
-  <si>
-    <t>ae consegui mais um 5 estrelas no fire emblem heroes, parece um herói bem roubado</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/hef9pujuc4</t>
-  </si>
-  <si>
-    <t>feh corre peligro en los próximos eventos de fire emblem heroes. https://t.co/dqva6r0sdr</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
 #fe_escarmouche #feheroes https://t.co/lqm8danekg</t>
   </si>
   <si>
-    <t>fire emblem heroes - cyl minigame #quickherobattle #feheroes nhã</t>
-  </si>
-  <si>
-    <t>azura fire emblem https://t.co/k2oalla7ww</t>
-  </si>
-  <si>
     <t>@srwilsoncca @drawn_mask tbm saiu fire emblem pra android :3</t>
   </si>
   <si>
-    <t>fire emblem heroes - special spot https://t.co/x2g2vhsjxq vía @youtube</t>
-  </si>
-  <si>
-    <t>fire emblem warriors incluirá a sakura de fire emblem fates como jugable https://t.co/qe2ub9vkfg https://t.co/xjykzuybrt</t>
-  </si>
-  <si>
-    <t>adicionei um vídeo a uma playlist @youtube https://t.co/llugtecehw, we ride! (fire emblem) - co-op players</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/ycxwz0agxa</t>
-  </si>
-  <si>
-    <t>zelda, pokémon e fire emblem pra mim são outros jogos que já estão passando da hora de receber um voice over decente</t>
-  </si>
-  <si>
-    <t>ah e fire emblem pq nao descanso enquanto nao me calhar uma waifu num pack</t>
-  </si>
-  <si>
-    <t>¿nos das un rt? #android nintendo anuncia fire emblem para android e ios https://t.co/8hro8z8rpo</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - evento de 5* grátis + lyn mini gameplay: https://t.co/upugdsky0z via @youtube</t>
-  </si>
-  <si>
-    <t>fire emblem warriors nos presenta a elise en vídeo https://t.co/vcbpn5xpuz</t>
-  </si>
-  <si>
-    <t>sakura y male corrin confirmados para fire emblem warriors - https://t.co/xgt3rqrqmg https://t.co/jmllx9nypz</t>
-  </si>
-  <si>
-    <t>tipo camilla
-eu quis dizer fire emblem</t>
-  </si>
-  <si>
-    <t>resumão nl: nindies showcase, miiverse e fire emblem warriors: https://t.co/owwq5lsr9i via @youtube</t>
-  </si>
-  <si>
-    <t>fire emblem heroes mi odia</t>
-  </si>
-  <si>
-    <t>fire emblem warriors nos presenta a elise en vídeo https://t.co/age4lzftp4 https://t.co/h9lkufgzbz</t>
-  </si>
-  <si>
-    <t>a redenção do fire emblem no ultimo dia do evento #feheroes https://t.co/vlgxmugscj</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/zjgvkpm0da</t>
-  </si>
-  <si>
-    <t>eu quero tanto jogar fire emblem heroes...
-mais meu celular ta sem memoria zzzzz</t>
-  </si>
-  <si>
-    <t>gostei de um vídeo @youtube https://t.co/p1wjkbqtk8 jogar: fire emblem: path of radiance #40 - "pupilo e mestre"</t>
-  </si>
-  <si>
-    <t>me ha gustado un vídeo de @youtube (https://t.co/dglcrddnuk - fire emblem warriors - gamescom 2017 trailer nintendo switch full hd).</t>
-  </si>
-  <si>
-    <t>rt @coopplayers: adicionei um vídeo a uma playlist @youtube https://t.co/llugtecehw, we ride! (fire emblem) - co-op players</t>
-  </si>
-  <si>
-    <t>fire emblem: the sacred stones (hard mode) pt#2-deu muita bosta mas o seth carregou: https://t.co/vykxmyqmzj via @youtube</t>
-  </si>
-  <si>
-    <t>@ishkyzone fire emblem vai ter anime</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/0unuq2j7bc</t>
-  </si>
-  <si>
-    <t>#nintendoswitch: elise, de fire emblem fates llegará a fire emblem warrios:... https://t.co/npme0xmilm</t>
-  </si>
-  <si>
-    <t>rt @nerapalude: fire emblem li merita 30/40€?</t>
-  </si>
-  <si>
-    <t>rt @dospuntoslash1: fire emblem heroes. anuncio completo https://t.co/raryfcxpcb #fireemblemheroes #geek https://t.co/vnyaxjvz0b</t>
-  </si>
-  <si>
-    <t>fire emblem competitive multiplayer</t>
-  </si>
-  <si>
-    <t>gostei de um vídeo do @youtube https://t.co/qjglq6o1xo we're finally back | let's play fire emblem echoes: shadows of valentia part</t>
-  </si>
-  <si>
-    <t>fire emblem warriors nos presenta a elise en vídeo https://t.co/6zx5msvtkr https://t.co/kta4cbstmt</t>
-  </si>
-  <si>
-    <t>mas os vale que metais a camus en fire emblem warriors o la tenemos,eh is?!!</t>
-  </si>
-  <si>
-    <t>aff to baixando fire emblem heroes dnv</t>
-  </si>
-  <si>
-    <t>legal que fire emblem sempre tem otimos protagonistas. o que acaba me fazendo jogar os jogos. acho daora.</t>
-  </si>
-  <si>
-    <t>me ha gustado un vídeo de @youtube (https://t.co/avr8pbjawu - fire emblem main themes: (2003) fire emblem 7 (arranged)).</t>
-  </si>
-  <si>
-    <t>me ha gustado un vídeo de @youtube (https://t.co/qyw7wviuwl - fire emblem heroes - reinhardt in a nutshell).</t>
-  </si>
-  <si>
-    <t>fire emblem warriors com opção de áudio em japonês (além do inglês) é realmente uma notícia bem-vinda! https://t.co/9xbsnzscqz</t>
-  </si>
-  <si>
-    <t>@tengumaru e eu fiquei mais empolgado pra ele do que pro de fire emblem porque o gameplay me pareceu beeem diferenc… https://t.co/djgijyl1rh</t>
-  </si>
-  <si>
-    <t>¡no te pierdas el espectacular ataque de fire emblem warriors! https://t.co/m4zsyghbi1 https://t.co/mdibklohpf</t>
-  </si>
-  <si>
-    <t>gostei de um vídeo @youtube https://t.co/7f586twhlx 124 - american gods, fire emblem: echoes, rainbow six siege | super amibos</t>
-  </si>
-  <si>
-    <t>rt @eumoronoanil: fire emblem é tudo</t>
-  </si>
-  <si>
-    <t>eu acordei 7 hrs por causa de fire emblem
-e to morto de sono
-e não summonei nd de bom
-gacha é um inferno</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/dh3hwxtjeb</t>
-  </si>
-  <si>
-    <t>elise llegará a fire emblem warriors https://t.co/ifpcqb3tfa</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/i6bcv06x1u</t>
-  </si>
-  <si>
-    <t>amanhã tem o evento de fire emblem heroes, primeira e última vez que eles devem estar tão generosos assim</t>
-  </si>
-  <si>
-    <t>@chatshire_ @delta2kbr agora joguem os fire emblem de gba ou de gc/wii
-agora, já</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #fdeheroes https://t.co/uyhvkbr4gt</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/qjiwdnmo8v :)</t>
-  </si>
-  <si>
-    <t>fire emblem heroes~arena practice: https://t.co/whvlaytwns a través de @youtube</t>
-  </si>
-  <si>
-    <t>@amethyst_leon as azura from fire emblem: fates &amp;lt;3
-#saffelsphotography #azura #fireemblem #fe… https://t.co/nfxn6ep3q5</t>
-  </si>
-  <si>
-    <t>fire emblem warriors. primeras impresiones para nintendo switch - entornointeligente https://t.co/kvjggtiyb4 #ciencia #tecnología</t>
-  </si>
-  <si>
-    <t>fire emblem warriors nos presenta a elise en vídeo https://t.co/djlokckgjm</t>
-  </si>
-  <si>
-    <t>rt @yuripecosta: #enemyask todos os fire emblem que vieram depois do radiant dawn, gostava muito dessa série, mas só me decepcionei com a f…</t>
-  </si>
-  <si>
-    <t>16. xander ━ fire emblem fates https://t.co/necguqh08y</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/esejrz7kbc</t>
-  </si>
-  <si>
-    <t>meu jesse no fire emblem echoes tá com critical rate tão alto que não é incomum ele dar crítico nos seus dois turnos</t>
-  </si>
-  <si>
-    <t>popular ipad apps: fire emblem heroes - nintendo co., ltd.: fire emblem heroes nintendo co… https://t.co/zpptqhnenp</t>
-  </si>
-  <si>
-    <t>fire emblem warriors - koei revela elise como personagem jogável; veja vídeo com gameplay https://t.co/9a2loqrw4x</t>
-  </si>
-  <si>
-    <t>celia - fire emblem echoes: shadows of valentía (by https://t.co/rtaoemlcla ) https://t.co/jybomhbtid</t>
-  </si>
-  <si>
-    <t>gostei de um vídeo @youtube https://t.co/5voryicnad f2p player goes absolutely ham on shiny new banner, 429 orbs - fire emblem</t>
-  </si>
-  <si>
-    <t>fire emblem eu botei no modo vc morre o jogo acaba blz..
-joguei 20 minutos de jogo</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche s#feheroes https://t.co/uyhvkbr4gt</t>
-  </si>
-  <si>
-    <t>fire emblem warriors nos presenta a elise en vídeo https://t.co/bxrkcdihyc https://t.co/oz49vujsdm</t>
-  </si>
-  <si>
-    <t>finaliza el desarrollo de fire emblem warriors https://t.co/mwucp4fybt</t>
-  </si>
-  <si>
-    <t>vixe, a empresa que faz fire emblem heroes usou só atores ocidentais na propaganda nova
-vai
-dar
-merda</t>
-  </si>
-  <si>
-    <t>rt @nintendoblast: nintendo anuncia edição de colecionador de fire emblem warriors (switch) https://t.co/r36vwg1kcz</t>
-  </si>
-  <si>
-    <t>@mrkrabs173 baccano
-durarara
-fire emblem (gba)
-fire emblem (3ds)
-persona 5</t>
-  </si>
-  <si>
-    <t>@aironou fire emblem heroes, é da nintendo</t>
-  </si>
-  <si>
-    <t>elise llegará a fire emblem warriors - levelup https://t.co/34xicwheti #oaxaca #tec</t>
-  </si>
-  <si>
-    <t>hoping you'll love this post... nintendo lança edições especiais de ‘pokémon’ e ‘fire emb...
-https://t.co/2etj8tznkn</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/bgvdpafdpq</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/zcf6f17voo</t>
-  </si>
-  <si>
-    <t>rt @stghmaav: @shadows_kilier ¿más fire emblem?</t>
-  </si>
-  <si>
-    <t>fire emblem heroes é muito bom mano</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/lqm8danekg       !</t>
-  </si>
-  <si>
-    <t>@infectadoslay ¿de estrategia como fire emblem?</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/uerc6bpmzd</t>
-  </si>
-  <si>
-    <t>é beeeeem difícil eu gostar de um jogo pra celular, mas fire emblem heroes é bom demais.</t>
-  </si>
-  <si>
-    <t>fire emblem warriors incluirá a sakura de fire emblem fates como jugable https://t.co/n7mhmn3lay https://t.co/kuxhzghjuv</t>
-  </si>
-  <si>
-    <t>vídeo promocional de fire emblem warriors centrado en elise   https://t.co/yynjr0uxgz</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes</t>
-  </si>
-  <si>
-    <t>vou tentar desenhar esse ike, do fire emblem, para a aula de sábado... hahaha https://t.co/fijlu7xt9c</t>
-  </si>
-  <si>
-    <t>fire emblem ooo</t>
-  </si>
-  <si>
-    <t>fire emblem: the sacred stones pt#1-não sei oque ta acontecendo mas o orson ta puto: https://t.co/xijw9ej1px via @youtube</t>
-  </si>
-  <si>
-    <t>rt @jluiz1981: a fatura do meu cartão de crédito vem recheada de vergonha.
-* 3 jogos que não jogarei
-* crédito de fire emblem heroes
-* r$…</t>
-  </si>
-  <si>
-    <t>está bem melhor death note evolution essa propaganda do fire emblem heroes. https://t.co/rv2u6eq3kp</t>
-  </si>
-  <si>
-    <t>o resumão chegou! venha conferir as notícias da semana, em texto ou em vídeo!
-https://t.co/ghmi79tzum</t>
-  </si>
-  <si>
-    <t>rt @solonintendo: ¡no te pierdas el espectacular ataque de fire emblem warriors! https://t.co/m4zsyghbi1 https://t.co/mdibklohpf</t>
-  </si>
-  <si>
-    <t>elise llegará a fire emblem warriors – levelup https://t.co/dd87rjqlu2 https://t.co/103omocrmt</t>
-  </si>
-  <si>
-    <t>@feelspheal de cartagena
-vale no
-te han dicho fire emblem?</t>
-  </si>
-  <si>
-    <t>celica celica (fire emblem) https://t.co/h1ea3ikg23</t>
-  </si>
-  <si>
-    <t>https://t.co/g5qksbmtim - nintendo lança edições especiais de 'pokémon' e 'fire emblem' https://t.co/6ypnsv2py0</t>
-  </si>
-  <si>
-    <t>me ha gustado un vídeo de @youtube (https://t.co/shea2b9dbk - part 6: let's play fire emblem, corrinright livestream, chapter 12).</t>
-  </si>
-  <si>
-    <t>gostei de um vídeo @youtube https://t.co/dsaohofvco spotlight: ike, young mercenary - fire emblem: heroes</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/dnkwjol4gj</t>
-  </si>
-  <si>
-    <t>fire emblem warriors nos presenta a elise en vídeo - https://t.co/ipoqrap0sb - - #gamesconsoles https://t.co/nhsqqhofux</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/heso4nxuwc</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/1vhwy8kpoo</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/nrrdiupxbq</t>
-  </si>
-  <si>
-    <t>fire emblem warriors (switch/n3ds): lucina, robin, frederick e lissa são confirmados em novo trailer https://t.co/cobry4vjez</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/vxqvbzdiu2</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/duf4pwshsu</t>
-  </si>
-  <si>
-    <t>@sughen_rol 
-solicito a corrin!fem, kagero y ryoma.
-fire emblem fates todos.</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/kuivxifkbb</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/2pragvweou</t>
-  </si>
-  <si>
-    <t>#hypenews
-veja um novo gameplay de fire emblem warriors - https://t.co/f26tnax1fb https://t.co/enjzzkj1a1</t>
-  </si>
-  <si>
-    <t>fire emblem é tudo</t>
-  </si>
-  <si>
-    <t>conheça fire emblem heroes (1/2) - introdução gráfica/prelúdio tutorial https://t.co/2pje0yasdj via @youtube</t>
-  </si>
-  <si>
-    <t>rt @blogiswar: fire emblem warriors incluirá a sakura de fire emblem fates como jugable https://t.co/n7mhmn3lay https://t.co/kuxhzghjuv</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/e2ai9u1kob</t>
-  </si>
-  <si>
-    <t>@veliusvarg fire emblem warriors el que me vas a regalar, elise es jugablr</t>
-  </si>
-  <si>
-    <t>fire emblem warriors nos presenta a elise en vídeo https://t.co/rpbittnhs4</t>
-  </si>
-  <si>
-    <t>fire emblem: hasha no tsurugi 30
-➡https://t.co/4pglfcctfk #anime #manga #manhwa #fireemblemhashanotsurugi https://t.co/tgcpgyg6th</t>
-  </si>
-  <si>
-    <t>fire emblem heroes. anuncio completo https://t.co/8bcmbtstey</t>
-  </si>
-  <si>
-    <t>@amphas_adonis fire emblem heroes -&amp;gt; feh</t>
-  </si>
-  <si>
     <t>fire emblem warriors incluirá a sakura de fire emblem fates como jugable https://t.co/gw3oy4q44b</t>
-  </si>
-  <si>
-    <t>@__jtgo__ @eumoronoanil fala mal de fire emblem agr &amp;gt;.&amp;gt;</t>
-  </si>
-  <si>
-    <t>fire emblem warriors. primeras impresiones para nintendo switch - entornointeligente https://t.co/s7hq0sf0j9 #ciencia #tecnología</t>
-  </si>
-  <si>
-    <t>nintendo lança edições especiais de 'pokémon' e 'fire emblem' https://t.co/ujj9pgubzm</t>
   </si>
   <si>
     <t>😱 #soldes
@@ -1331,67 +884,515 @@
 #bonplan https://t.co/zhb2aujjfd</t>
   </si>
   <si>
-    <t>@pikcal1 que te parece el fire emblem heroes?</t>
-  </si>
-  <si>
-    <t>rt @raplaplue: fire emblem heroes - escarmouche ! 
-#fe_escarmouche #feheroes https://t.co/xedjldoiqv</t>
-  </si>
-  <si>
-    <t>nossa, fire emblem é mó bom</t>
-  </si>
-  <si>
-    <t>leo (fire emblem fates) https://t.co/pn8nvvowib</t>
-  </si>
-  <si>
-    <t>fire emblem heroes - turn limit part 4: https://t.co/i9pbw3d1yr vía @youtube</t>
-  </si>
-  <si>
-    <t>gostei de um vídeo @youtube https://t.co/obvpypaarz your legends banner - fire emblem: heroes</t>
-  </si>
-  <si>
-    <t>fire emblem warriors incluirá a sakura de fire emblem fates como jugable https://t.co/kffarvsxt4</t>
-  </si>
-  <si>
-    <t>@adrian_nss vou dar uma olhada meu anjo!
-to jogando fire emblem heroes no celular e é maravilhoso s2</t>
-  </si>
-  <si>
-    <t>e3 2017 ? fire emblem warriors (switch/new 3ds) troca estratégia por (muita) ação https://t.co/gqriqajyr3</t>
-  </si>
-  <si>
-    <t>elise llegará a fire emblem warriors https://t.co/pvsepcrcvi.</t>
-  </si>
-  <si>
-    <t>caralho, eu sonhei com fire emblem, fui atrás de notícia, não era o que sonhei</t>
-  </si>
-  <si>
     <t>fire emblem series (nintendo) https://t.co/dojdcwow6h</t>
   </si>
   <si>
-    <t>@vulpesokamis naruto fire emblem https://t.co/covy6uhyom</t>
-  </si>
-  <si>
-    <t>he comprado: 'fire emblem fates: conquest - nintendo 3ds - standard edition' de nintendo via @amazonmex https://t.co/uh850vyhgf</t>
-  </si>
-  <si>
-    <t>fire emblem warriors presenta a elise en vídeo</t>
-  </si>
-  <si>
-    <t>@billy_mkii @nintakun se coloca personagem flop de fire emblem, personagem de no more heroes tá tudo bem também</t>
+    <t>Irrelevante</t>
+  </si>
+  <si>
+    <t>Relevante</t>
+  </si>
+  <si>
+    <t>Relevância</t>
+  </si>
+  <si>
+    <t>rt @blogiswar: fire emblem warriors presenta a los personajes de fire emblem fates en dos vídeos https://t.co/gx3vmcfr4y https://t.co/wndb1…</t>
+  </si>
+  <si>
+    <t>truth - fire emblem echoes: shadows of valentia https://t.co/zajwt2sevm vía @youtube</t>
+  </si>
+  <si>
+    <t>@venonaty espero que vc n esteja falando do takumi do fire emblem.......</t>
+  </si>
+  <si>
+    <t>rt @nintenderos: toneladas de nuevas capturas de fire emblem warriors - https://t.co/ks9crrhs7p https://t.co/vzomltitpl</t>
+  </si>
+  <si>
+    <t>fire emblem warriors: gameplay de 8 minutos do jogo https://t.co/2bknwqiher</t>
+  </si>
+  <si>
+    <t>@andreyin saudades da época que ficava horas no fire emblem de gba hahahah</t>
+  </si>
+  <si>
+    <t>amiibo celica fire emblem japanese ver. #amiibo #celica #fire #emblem https://t.co/99lcyoooli</t>
+  </si>
+  <si>
+    <t>@lolo_aburto @spideybot como la que le quitaron a fire emblem fates v:</t>
+  </si>
+  <si>
+    <t>fire emblem warriors - koei divulga trailer para os personagens de awakening https://t.co/yxgtueqj3y</t>
+  </si>
+  <si>
+    <t>to amando esse novo feature do fire emblem heroes aaaaa
+não é o reroll que eu queria, mas ele consegue corrigir um… https://t.co/tzwby2zvh2</t>
+  </si>
+  <si>
+    <t>fire emblem echoe shadow of valentia el peregrinaje: https://t.co/fluuchnhdt via @youtube</t>
+  </si>
+  <si>
+    <t>novas informações sobre fire emblem warriors https://t.co/upxhnvpgsh https://t.co/pddcheyvy1</t>
+  </si>
+  <si>
+    <t>[fire emblem heroes] bound hero battle - e &amp;amp; e - infernal / 4* no inheri... https://t.co/zkztoxiwxg</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/3cuyphu9gp, i'm interested in fire emblem warriors again</t>
+  </si>
+  <si>
+    <t>rt @disketdance2: personagens de bnha fazendo cosplay de fire emblem awakening passando pela sua tl https://t.co/xkp1w42qrv</t>
+  </si>
+  <si>
+    <t>fire emblem warriors – trailer de introdução https://t.co/trgxhdvuho https://t.co/ujkgk564se</t>
+  </si>
+  <si>
+    <t>toneladas de nuevas capturas de fire emblem warriors - https://t.co/ks9crrhs7p https://t.co/vzomltitpl</t>
+  </si>
+  <si>
+    <t>caeda confirmada para fire emblem warriors. https://t.co/y9wr9xfru3</t>
+  </si>
+  <si>
+    <t>mario + rabbids &amp;gt; fire emblem imo</t>
+  </si>
+  <si>
+    <t>me ha gustado un vídeo de @youtube (https://t.co/3cgqd33aua - berkut meltdown/swamps. fire emblem echoes: shadows of valentia</t>
+  </si>
+  <si>
+    <t>@woeisrafers minha queixa é com a modelagem preguiçosa do jogo. todos caírem no chão do mesmo jeito ficou feio. e f… https://t.co/asj630xzqe</t>
+  </si>
+  <si>
+    <t>hoje eu acordei com 10 orbs na conta do fire emblem heroes, mal sabem eles que nesse mini evento geral usou bot, inclusive eu</t>
+  </si>
+  <si>
+    <t>#oferta amiibo alm and celica - fire emblem fates a 540 pesos
+https://t.co/oyaizmn3ij</t>
+  </si>
+  <si>
+    <t>eu sou um otario mesmo e quero muito o fire emblem warriors</t>
+  </si>
+  <si>
+    <t>-o novo metroid do 3ds
+-fire emblem echoes
+-um remix de parabéns pra você</t>
+  </si>
+  <si>
+    <t>fire emblem warriors (n3ds/switch) ganha novo trailer e mostra mais personagens https://t.co/xj7bhl6sw9 https://t.co/aovdyk3rib</t>
+  </si>
+  <si>
+    <t>rt @sialianeus: fire emblem de tiger &amp;amp; bunny
+https://t.co/s5pog4rs09
+rt si os gusta 💕 https://t.co/bz7zetwklf</t>
+  </si>
+  <si>
+    <t>eu bati o olho embaixo e é fire emblem warriors. eu nem consigo me decepcionar mais, pode mandar o pior</t>
+  </si>
+  <si>
+    <t>@tekeefe foi tanto tempo assim? eu achei q o que eles mostraram foi legal o ruim é que não era o que eu queria ver… https://t.co/bk3ni2vmzz</t>
+  </si>
+  <si>
+    <t>é hoje que anunciam anime de fire emblem</t>
+  </si>
+  <si>
+    <t>iphoneitalia - nintendo aggiorna lo splendido fire emblem heroes https://t.co/jzzkezk7ey @iphone_italia</t>
+  </si>
+  <si>
+    <t>rt @lyra_gamer: fire emblem echoes - shadows of valentia - #32 la trampa de nuibaba: https://t.co/hivnueys3j vía @youtube</t>
+  </si>
+  <si>
+    <t>agora, a 80km/h, estão a fanbase de animal crossing, a de fire emblem e quem quer port de smash.
+não dá pra saber quem é mais chorão.</t>
+  </si>
+  <si>
+    <t>@nightmareyoshiy @mytunegames fire emblem heros</t>
+  </si>
+  <si>
+    <t>@mimiblargh seu estilo é mo amorzinho, apesar de q a maioria é de fire emblem, e eu num manjo nada @.@ hdusaidhsauifd</t>
+  </si>
+  <si>
+    <t>camilla é o destaque na 2º apresentação dos personagens de fire emblem warriors.
+#fireemblem #nintendo #koeitecmo... https://t.co/xxiiiemj98</t>
+  </si>
+  <si>
+    <t>ahora vemos algo de fire emblem warriors #nintendodirect https://t.co/fzdgumarha</t>
+  </si>
+  <si>
+    <t>tem tanto boneco de fire emblem em smash bros que vão fazer um torneio só com esses bonecos https://t.co/yct7anglv3</t>
+  </si>
+  <si>
+    <t>@linhadotrem dragon ball e o one piece são bem divertidos. tem fire emblem e kingdom hearts também.</t>
+  </si>
+  <si>
+    <t>fire emblem heroes (ios/android) recebe trailer com heróis e heroínas https://t.co/oujmc3utu9 https://t.co/krxmqxcxs6</t>
+  </si>
+  <si>
+    <t>nintendo aggiorna lo splendido fire emblem heroes https://t.co/mmcl3ys2ar #iphone retwittare #tecnology #smartphone #news #apple #pc</t>
+  </si>
+  <si>
+    <t>@gametheoryrejct fire emblem (tm)</t>
+  </si>
+  <si>
+    <t>tráiler de los personajes de fire emblem awakening revelados para fire emblem warriors - https://t.co/syb4imrsjc https://t.co/j24wm0etrp</t>
+  </si>
+  <si>
+    <t>@nudistobiichi leu embaix. fire emblem warriors e no ace attorney</t>
+  </si>
+  <si>
+    <t>agora so falta rebaixa fire emblem, mas preciso acha espaço pra isso fksknfjs</t>
+  </si>
+  <si>
+    <t>a follarme a mi sex bot que casualmente se parece a sonya fire emblem</t>
+  </si>
+  <si>
+    <t>vendo fire emblem echoes limitada (precintada) y amiibo link smash https://t.co/5waf95cknj</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/f1ogp1jhgc played skyrim &amp;amp; fire emblem warriors! preview discussion (nintendo switch - pax</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/deid0ekdkb x gon give it (fire emblem vs dmx)</t>
+  </si>
+  <si>
+    <t>@thecheapsteaks fire emblem o.o</t>
+  </si>
+  <si>
+    <t>hoje eu acordei meu irmão sem querer com o gemidão do fire emblem</t>
   </si>
   <si>
     <t>fire emblem heroes - escarmouche ! 
-#fe_escarrmouche #feheroes https://t.co/uyhvkbr4gt</t>
-  </si>
-  <si>
-    <t>Positivo</t>
-  </si>
-  <si>
-    <t>Irrelevante</t>
-  </si>
-  <si>
-    <t>Negativo</t>
+#fe_escarmouche #feheroes https://t.co/hk2701vj2y</t>
+  </si>
+  <si>
+    <t>eu tenho que parar de associar personagens de fire emblem heroes com pessoas irl</t>
+  </si>
+  <si>
+    <t>@linhadotrem ff tactics e fire emblem (acho que o do gba se chamava só fire emblem mesmo no ocidente)</t>
+  </si>
+  <si>
+    <t>ahora vemos algo de fire emblem warriors #nintendodirect https://t.co/afchuwdt55</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/nsi1ml0tfr] infernal female robin grand hero battle - fire emblem heroes</t>
+  </si>
+  <si>
+    <t>#gamer fire emblem warriors nos presenta a los personajes de fire emblem fates en dos vídeos https://t.co/9msinjabi6 https://t.co/nr3ms4r28c</t>
+  </si>
+  <si>
+    <t>vou baixar fire emblem heroes de novo</t>
+  </si>
+  <si>
+    <t>nintendo aggiorna lo splendido fire emblem heroes https://t.co/qs0s15loxr #thexeon</t>
+  </si>
+  <si>
+    <t>vê cordelia em fire emblem warriors https://t.co/tmr2595vl4</t>
+  </si>
+  <si>
+    <t>@pabloprime eu tô pensando em quando terminar o metroid e o fire emblem (que tô jogando no 3ds) comprar o switch...… https://t.co/2capnivw31</t>
+  </si>
+  <si>
+    <t>¡¡lyyyyyyyyyyyyyyyyyn!! ¡la prota del fire emblem de gba! *0*</t>
+  </si>
+  <si>
+    <t>@alscarlet del fire emblem de switch, nada, ¿no?</t>
+  </si>
+  <si>
+    <t>@lyndis_fm um fire emblem de nintendo switch vai ter a lyndis kkkkkk</t>
+  </si>
+  <si>
+    <t>@anyabraddock fire emblem heros.</t>
+  </si>
+  <si>
+    <t>tentei trazer o @shilluba para o fire emblem heroes mostrando waifus mad não rolou</t>
+  </si>
+  <si>
+    <t>@mimiblargh segui pela arte de fire emblem, fiquei pelos memes (e arte também rs). ❤</t>
+  </si>
+  <si>
+    <t>@olischues amigo twittei algumas coisas mas não foi tudo, basicamente eu chorei por causa de um personagem de fire… https://t.co/t9l66fmyvh</t>
+  </si>
+  <si>
+    <t>fire emblem saga???? o_o</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/0qi13k0aog earthquake op | let's play fire emblem echoes: shadows of valentia part 41 w/</t>
+  </si>
+  <si>
+    <t>rumor: fire emblem fates poderá receber uma versão para o switch https://t.co/s5kykbwb9h https://t.co/tfpbfcv2za</t>
+  </si>
+  <si>
+    <t>fire emblem warriors presenta a los personajes de fire emblem fates en dos vídeos https://t.co/lrzlilo3op</t>
+  </si>
+  <si>
+    <t>camila is a fire emblem hoe</t>
+  </si>
+  <si>
+    <t>azura (aqua) fire emblem #アクア #ファイアーエムブレム  https://t.co/xayajnxw9y
+https://t.co/tg9atoiq4d https://t.co/bdsghe0blg</t>
+  </si>
+  <si>
+    <t>fire emblem warriors revela cordelia e female robin https://t.co/ozmdchcjng</t>
+  </si>
+  <si>
+    <t>fire emblem warriors se deja ver en nintendo 3ds</t>
+  </si>
+  <si>
+    <t>#lewd cecilia (fire emblem, fire emblem: fuuin no tsurugi…) drawn by harihisa https://t.co/vfdxpioygf https://t.co/3xyuj5wuon</t>
+  </si>
+  <si>
+    <t>leo - fire emblem fates https://t.co/p0ilggaplm</t>
+  </si>
+  <si>
+    <t>@rafannibal acabou de ganhar minecraft e fire emblem</t>
+  </si>
+  <si>
+    <t>azura from fire emblem: fates, by calsara #cosplaygirls https://t.co/ua0in8ovdg https://t.co/cbam2lcs0k</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/d3aeon6xm2 feels from magic | let's play fire emblem echoes: shadows of valentia part 40</t>
+  </si>
+  <si>
+    <t>rt @yf_studio: azura (aqua) fire emblem #アクア #ファイアーエムブレム  https://t.co/xayajnxw9y
+https://t.co/tg9atoiq4d https://t.co/bdsghe0blg</t>
+  </si>
+  <si>
+    <t>rt @rath07: "mais nan ! #27 fire emblem fates conquete ch.21" : https://t.co/er9vd96dt2 via @youtube</t>
+  </si>
+  <si>
+    <t>boa noite pra quem está jogando fire emblem heroes sai semana que vem pela frente nos próximos dias.</t>
+  </si>
+  <si>
+    <t>ahhh eu quero jogar esse fire emblem</t>
+  </si>
+  <si>
+    <t>lyn ta no fire emblem warriors meu deus eu tô chorando</t>
+  </si>
+  <si>
+    <t>fire emblem warriors presenta a los personajes de fire emblem fates en dos vídeos https://t.co/z4wajptiyo</t>
+  </si>
+  <si>
+    <t>queria baixar fire emblem undub mas só existe undub + swinsuit
+¯\_(ツ)_/¯</t>
+  </si>
+  <si>
+    <t>fire emblem warriors.¿éxito o fracaso? || nintendo switch - fire emblem - koei tecmo: https://t.co/uzvyujntyv vía @youtube</t>
+  </si>
+  <si>
+    <t>@darkrailj jogue fire emblem heroes, muito justo, com uma empresa que dá muitos bônus pra todo mundo.</t>
+  </si>
+  <si>
+    <t>#jogos | novas imagens de fire emblem warriors https://t.co/51bawf8rab | (@eurogamer)</t>
+  </si>
+  <si>
+    <t>me ha gustado un vídeo de @youtube (https://t.co/armalfhhva - fire emblem fates - all cutscenes hd (exclusive 60fps)).</t>
+  </si>
+  <si>
+    <t>caesar en fire emblem? sisaaaaaar https://t.co/06pxvwggu3</t>
+  </si>
+  <si>
+    <t>¡¡¿¿lyn en fire emblem warriors??!! ¡¡¡vendidísimo!!!</t>
+  </si>
+  <si>
+    <t>xenoblade não teve nada que eu já não sabia mas pelo menos teve data, i am the hype.
+e estou bolado que não teve mais fire emblem warriors.</t>
+  </si>
+  <si>
+    <t>fire emblem warriors terá direct dedicada no dia 18 de janeiro https://t.co/bcypkld8kb https://t.co/pt9yqpdig8</t>
+  </si>
+  <si>
+    <t>@mahrimo mari vamos fazer um evento para destruir fire emblem</t>
+  </si>
+  <si>
+    <t>fire emblem warriors se deja ver en nintendo 3ds https://t.co/ekiu3bveac</t>
+  </si>
+  <si>
+    <t>fire emblem warriors tem dois novos trailers de personagens lançados! - https://t.co/czdhmjdiy0 https://t.co/xkea5tlpv8</t>
+  </si>
+  <si>
+    <t>caralho, tá incrivelmente fácil de upar unidade no fire emblem heroes. tirei o dia pra upar brave lucina e lyn e ambas já estão lvl 40.</t>
+  </si>
+  <si>
+    <t>passei a fase que tava empacada no fire emblem mas ai fiquei empacada na seguinte
+ah... https://t.co/ajbqz5wvac</t>
+  </si>
+  <si>
+    <t>rt @atomix: #nintendodirect lyn llegará a fire emblem warriors https://t.co/jsclje7ypw https://t.co/njbohdahao</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/lsoc1caevn played skyrim &amp;amp; fire emblem warriors! preview discussion (nintendo switch - pax</t>
+  </si>
+  <si>
+    <t>direct vai ter:
+-bayonetta 1&amp;amp;2 
+-virtual console
+-fire emblem
+-(talvez) achievements ligados a conta nintendo pra pegar aqueles brinde bosta</t>
+  </si>
+  <si>
+    <t>【ｒｅｓｅｒｖａ】
+「 celica→ fire emblem echoes」</t>
+  </si>
+  <si>
+    <t>agora é a vez da versão masculina de corrin!
+#fireemblem #nintendo #koeitecmo #musou #omegaforce https://t.co/zkfw6sr7x1</t>
+  </si>
+  <si>
+    <t>fire emblem warriors terá direct dedicada no dia 18 de janeiro https://t.co/o7ya80txk7 https://t.co/hv2pnof4fa</t>
+  </si>
+  <si>
+    <t>@albertsstuff fire emblem heros</t>
+  </si>
+  <si>
+    <t>podemos ver dos nuevos vídeos de fire emblem warriors https://t.co/3dluxilavb https://t.co/r4wvcnvgwc</t>
+  </si>
+  <si>
+    <t>rumor: fire emblem fates poderá receber uma versão para o switch https://t.co/s5kykbwb9h https://t.co/hsblozuxsg</t>
+  </si>
+  <si>
+    <t>fire emblem warriors se deja ver en nintendo 3ds https://t.co/fgj359kfq7</t>
+  </si>
+  <si>
+    <t>lançar fire emblem dia 20 e mario dia 27 é um tiro no pé. um compete com o outro nas vendas</t>
+  </si>
+  <si>
+    <t>esse fire emblem está apostando tudo na nostalgia, né? ficou bem tosco os inimigos apanhando mais sincronizados que… https://t.co/xiutfqeqpw</t>
+  </si>
+  <si>
+    <t>nintendo aggiorna lo splendido fire emblem heroes https://t.co/efwao7zuhm</t>
+  </si>
+  <si>
+    <t>fire emblem -pasandooo</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/bafmtvljq2 no si or seals] infernal ephraim and eirika bound hero battle - fire emblem</t>
+  </si>
+  <si>
+    <t>fire emblem warriors (n3ds/switch) ganha novo trailer e mostra mais personagens https://t.co/xaq1oopyn3</t>
+  </si>
+  <si>
+    <t>queria ter paciencia pra fire emblem</t>
+  </si>
+  <si>
+    <t>rt @nintenderos: tráiler de los personajes de fire emblem awakening revelados para fire emblem warriors - https://t.co/syb4imrsjc https://t…</t>
+  </si>
+  <si>
+    <t>eu tô bem animado para esse musou de fire emblem</t>
+  </si>
+  <si>
+    <t>fire emblem direct 2017 ? resumo da apresentação https://t.co/tqimwsjgj5 https://t.co/6dt1tlmzwm</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/4olzge0z1x fire emblem warriors nintendo switch full stream gameplay hd</t>
+  </si>
+  <si>
+    <t>fire emblem direct 2017 ? resumo da apresentação https://t.co/tz78afbreq https://t.co/nhknbtjnin</t>
+  </si>
+  <si>
+    <t>aaaaa o fire emblem warriors vai sair pra 3ds</t>
+  </si>
+  <si>
+    <t>rt @skaditoys: marth - fire emblem *;*
+disponível https://t.co/hqc37thkup</t>
+  </si>
+  <si>
+    <t>@trainer__ed fui procurar "robin smile fire emblem" no google (é vago mas a tenteada é livre, ne) e encontrei isso… https://t.co/v9p9f6cszq</t>
+  </si>
+  <si>
+    <t>@gabrielfritter e eu acho que to a 1 fase de zerar fire emblem 3</t>
+  </si>
+  <si>
+    <t>https://t.co/uxf4jgvkaz felicia and lucina (fire emblem, fire emblem: kakusei, fire emblem heroes, and fire emblem… https://t.co/odhshb22nv</t>
+  </si>
+  <si>
+    <t>trailer de fire emblem warriors introduz a alguns heróis do jogo https://t.co/jm6fvetccr https://t.co/tjgrl8frvq</t>
+  </si>
+  <si>
+    <t>@geekpobre xenoblace chronicles 2 e musou de fire emblem foi o que foi mostrado por enqt</t>
+  </si>
+  <si>
+    <t>aquele empresário que ganhou o poll de fire emblem heroes sai semana que entrou esse mês tem littlebigplanet 3.</t>
+  </si>
+  <si>
+    <t>lissa in fire emblem musou...</t>
+  </si>
+  <si>
+    <t>fire emblem warriors nos presenta a los personajes de fire emblem fates en dos vídeos https://t.co/ijzhpvq14f</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/lsguhulve4 theme (beach) - fire emblem awakening</t>
+  </si>
+  <si>
+    <t>yoespero mas el fire emblem warriors que el mario gorra</t>
+  </si>
+  <si>
+    <t>@_daniel_hl terminaste fire emblem ?</t>
+  </si>
+  <si>
+    <t>azura (aqua) fire emblem #アクア #ファイアーエムブレム  https://t.co/sruwxdhgoh
+https://t.co/zqwtnbncwd https://t.co/b7qamoiex1</t>
+  </si>
+  <si>
+    <t>tbm te amo fire emblem</t>
+  </si>
+  <si>
+    <t>@v0id115 eu n consigo joga ;-; pq tô sem cartão de memória aí o ds n deixa eu iniciar skskwbdkwldjwld aí só tô no fire emblem por enquanto</t>
+  </si>
+  <si>
+    <t>@awataguccis por um lado é bom que o maior problema do fandom de fire emblem é o elitismo porque de resto eu n cons… https://t.co/7zwqtw89b5</t>
+  </si>
+  <si>
+    <t>koei tecmo presenta dos nuevos videos de fire emblem warriors - https://t.co/jrrsmrahh3 https://t.co/8y3tduxuu2</t>
+  </si>
+  <si>
+    <t>[fire emblem heroes] mini tempest trials: omae wa mou shindeiru (ft. hector/tsubaki/fae): https://t.co/abpe3wljy8 vía @youtube</t>
+  </si>
+  <si>
+    <t>fire emblem fates: conquest - nintendo 3 #fire #emblem #fates: #conques https://t.co/tpwsfegwxy</t>
+  </si>
+  <si>
+    <t>@3llroy nunca joguei fire emblem mas achei fofinha 8/10 potencial de waifu</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/moiuk3tzil marisa, the crimson flash - fire emblem 8: the sacred stones #20</t>
+  </si>
+  <si>
+    <t>@chiefbool no fire emblem = eh.</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/vlqglq3aqo fire emblem warriors gameplay trailer - nintendo switch - nintendo direct</t>
+  </si>
+  <si>
+    <t>printes de fire emblem</t>
+  </si>
+  <si>
+    <t>ndirect - lyndis é revelada para fire emblem warriors; veja novo trailer https://t.co/atihwwxaws</t>
+  </si>
+  <si>
+    <t>venga fire emblem talentosa</t>
+  </si>
+  <si>
+    <t>leakeado render "beta" de fire emblem warriors mostrando a selena, de fire emblem fates. https://t.co/vykkdv9eqk</t>
+  </si>
+  <si>
+    <t>fire emblem warriors presenta a los personajes de fire emblem fates en dos vídeos https://t.co/yoyezsnczx</t>
+  </si>
+  <si>
+    <t>que viva el fire emblem.</t>
+  </si>
+  <si>
+    <t>confira o preview de skyrim e fire emblem warriors para nintendo switch pelo canal gamexplain! - ... https://t.co/mly11x9chr</t>
+  </si>
+  <si>
+    <t>que vontade de jogar fire emblem fates aaa</t>
+  </si>
+  <si>
+    <t>rt @terralimite: ou seja, mais um jogo de fire emblem só com personagens do fates e do awakening https://t.co/oisit0uihi</t>
+  </si>
+  <si>
+    <t>fire emblem warriors, + de médias… https://t.co/2pv4gek9jr https://t.co/qalgnads5j</t>
+  </si>
+  <si>
+    <t>me ha gustado un vídeo de @youtube (https://t.co/ex5lw0pma0 - fire emblem heroes: online arena duels #20 - quadsuna &amp;amp; reinhardt [4808</t>
+  </si>
+  <si>
+    <t>5 jogos necessários no meu futuro switch serão mario odyssey, splatoon 2, pokémon, animal crossing e fire emblem warriors.</t>
   </si>
 </sst>
 </file>
@@ -1804,26 +1805,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="128.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1831,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1839,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1847,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1855,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1863,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1887,7 +1892,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1895,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1903,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,7 +1932,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1935,7 +1940,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1943,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1951,7 +1956,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1959,7 +1964,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1967,7 +1972,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1975,20 +1980,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1996,7 +2004,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2004,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2012,7 +2020,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2020,7 +2028,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2028,7 +2036,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2036,7 +2044,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2044,7 +2052,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2052,7 +2060,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2060,7 +2068,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2068,7 +2076,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2076,7 +2084,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2084,7 +2092,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2092,7 +2100,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2100,7 +2108,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2108,7 +2116,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2116,7 +2124,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2124,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2132,7 +2140,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2140,7 +2148,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2148,7 +2156,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2156,7 +2164,7 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2164,7 +2172,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2172,7 +2180,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2180,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2188,7 +2196,7 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2196,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2204,7 +2212,7 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2212,7 +2220,7 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2220,7 +2228,7 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2228,7 +2236,7 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2236,7 +2244,7 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2244,7 +2252,7 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2252,7 +2260,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2260,7 +2268,7 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2268,7 +2276,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2276,7 +2284,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2284,7 +2292,7 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2292,7 +2300,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2300,7 +2308,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2308,7 +2316,7 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2316,7 +2324,7 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2324,7 +2332,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2332,7 +2340,7 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2340,7 +2348,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2348,7 +2356,7 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2356,7 +2364,7 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2364,7 +2372,7 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2372,7 +2380,7 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2380,7 +2388,7 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2388,7 +2396,7 @@
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2396,7 +2404,7 @@
         <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2404,7 +2412,7 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2412,7 +2420,7 @@
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2420,7 +2428,7 @@
         <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2428,7 +2436,7 @@
         <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2436,7 +2444,7 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2444,7 +2452,7 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2452,7 +2460,7 @@
         <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2460,7 +2468,7 @@
         <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2468,7 +2476,7 @@
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2476,7 +2484,7 @@
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2484,7 +2492,7 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2492,7 +2500,7 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2500,7 +2508,7 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2508,7 +2516,7 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +2524,7 @@
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2524,7 +2532,7 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2532,7 +2540,7 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2540,7 +2548,7 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2548,7 +2556,7 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2556,7 +2564,7 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2564,7 +2572,7 @@
         <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2572,7 +2580,7 @@
         <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2580,7 +2588,7 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2588,7 +2596,7 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2596,7 +2604,7 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2604,7 +2612,7 @@
         <v>91</v>
       </c>
       <c r="B100" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2620,7 @@
         <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -2620,7 +2628,7 @@
         <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2628,7 +2636,7 @@
         <v>94</v>
       </c>
       <c r="B103" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2636,7 +2644,7 @@
         <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,7 +2652,7 @@
         <v>96</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2652,7 +2660,7 @@
         <v>97</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2660,7 +2668,7 @@
         <v>98</v>
       </c>
       <c r="B107" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2668,7 +2676,7 @@
         <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2676,7 +2684,7 @@
         <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +2692,7 @@
         <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2692,7 +2700,7 @@
         <v>101</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2700,7 +2708,7 @@
         <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2716,7 @@
         <v>103</v>
       </c>
       <c r="B113" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,7 +2724,7 @@
         <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2724,7 +2732,7 @@
         <v>105</v>
       </c>
       <c r="B115" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2732,7 +2740,7 @@
         <v>106</v>
       </c>
       <c r="B116" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2740,7 +2748,7 @@
         <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2748,7 +2756,7 @@
         <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2764,7 @@
         <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2764,7 +2772,7 @@
         <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2772,7 +2780,7 @@
         <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,7 +2788,7 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2788,7 +2796,7 @@
         <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2804,7 @@
         <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +2812,7 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2820,7 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2820,7 +2828,7 @@
         <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2836,7 @@
         <v>26</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2844,7 @@
         <v>117</v>
       </c>
       <c r="B129" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2844,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2852,7 +2860,7 @@
         <v>118</v>
       </c>
       <c r="B131" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2868,7 @@
         <v>119</v>
       </c>
       <c r="B132" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2868,7 +2876,7 @@
         <v>120</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2884,7 @@
         <v>29</v>
       </c>
       <c r="B134" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +2892,7 @@
         <v>121</v>
       </c>
       <c r="B135" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +2900,7 @@
         <v>122</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2908,7 @@
         <v>123</v>
       </c>
       <c r="B137" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +2916,7 @@
         <v>124</v>
       </c>
       <c r="B138" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +2932,7 @@
         <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +2940,7 @@
         <v>126</v>
       </c>
       <c r="B141" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +2948,7 @@
         <v>127</v>
       </c>
       <c r="B142" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +2956,7 @@
         <v>128</v>
       </c>
       <c r="B143" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2964,7 @@
         <v>129</v>
       </c>
       <c r="B144" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +2972,7 @@
         <v>130</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +2980,7 @@
         <v>131</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +2988,7 @@
         <v>132</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +2996,7 @@
         <v>133</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +3004,7 @@
         <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +3012,7 @@
         <v>134</v>
       </c>
       <c r="B150" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,7 +3020,7 @@
         <v>135</v>
       </c>
       <c r="B151" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,7 +3028,7 @@
         <v>136</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,7 +3036,7 @@
         <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +3044,7 @@
         <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3052,7 @@
         <v>138</v>
       </c>
       <c r="B155" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +3060,7 @@
         <v>139</v>
       </c>
       <c r="B156" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3060,7 +3068,7 @@
         <v>140</v>
       </c>
       <c r="B157" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3068,7 +3076,7 @@
         <v>141</v>
       </c>
       <c r="B158" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,7 +3084,7 @@
         <v>142</v>
       </c>
       <c r="B159" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3084,7 +3092,7 @@
         <v>143</v>
       </c>
       <c r="B160" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3100,7 @@
         <v>72</v>
       </c>
       <c r="B161" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3100,7 +3108,7 @@
         <v>144</v>
       </c>
       <c r="B162" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,7 +3116,7 @@
         <v>145</v>
       </c>
       <c r="B163" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3124,7 @@
         <v>146</v>
       </c>
       <c r="B164" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3132,7 @@
         <v>147</v>
       </c>
       <c r="B165" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3132,7 +3140,7 @@
         <v>148</v>
       </c>
       <c r="B166" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3140,7 +3148,7 @@
         <v>149</v>
       </c>
       <c r="B167" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3148,7 +3156,7 @@
         <v>27</v>
       </c>
       <c r="B168" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3164,7 @@
         <v>150</v>
       </c>
       <c r="B169" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3164,7 +3172,7 @@
         <v>151</v>
       </c>
       <c r="B170" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3172,7 +3180,7 @@
         <v>30</v>
       </c>
       <c r="B171" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3180,7 +3188,7 @@
         <v>152</v>
       </c>
       <c r="B172" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3196,7 @@
         <v>153</v>
       </c>
       <c r="B173" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,7 +3204,7 @@
         <v>154</v>
       </c>
       <c r="B174" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3204,7 +3212,7 @@
         <v>155</v>
       </c>
       <c r="B175" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3212,7 +3220,7 @@
         <v>156</v>
       </c>
       <c r="B176" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3228,7 @@
         <v>157</v>
       </c>
       <c r="B177" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3228,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -3236,7 +3244,7 @@
         <v>26</v>
       </c>
       <c r="B179" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3244,7 +3252,7 @@
         <v>158</v>
       </c>
       <c r="B180" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3252,7 +3260,7 @@
         <v>159</v>
       </c>
       <c r="B181" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3260,7 +3268,7 @@
         <v>160</v>
       </c>
       <c r="B182" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3268,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B183" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3284,7 @@
         <v>161</v>
       </c>
       <c r="B184" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -3284,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3292,7 +3300,7 @@
         <v>162</v>
       </c>
       <c r="B186" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3300,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3308,7 +3316,7 @@
         <v>163</v>
       </c>
       <c r="B188" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3316,7 +3324,7 @@
         <v>26</v>
       </c>
       <c r="B189" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3324,7 +3332,7 @@
         <v>164</v>
       </c>
       <c r="B190" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3332,7 +3340,7 @@
         <v>165</v>
       </c>
       <c r="B191" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3340,7 +3348,7 @@
         <v>166</v>
       </c>
       <c r="B192" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3348,7 +3356,7 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3356,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3364,7 +3372,7 @@
         <v>167</v>
       </c>
       <c r="B195" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3372,7 +3380,7 @@
         <v>168</v>
       </c>
       <c r="B196" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3380,7 +3388,7 @@
         <v>169</v>
       </c>
       <c r="B197" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3388,7 +3396,7 @@
         <v>170</v>
       </c>
       <c r="B198" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3396,7 +3404,7 @@
         <v>171</v>
       </c>
       <c r="B199" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3404,7 +3412,7 @@
         <v>172</v>
       </c>
       <c r="B200" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3412,7 +3420,7 @@
         <v>173</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3428,7 @@
         <v>174</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3428,7 +3436,7 @@
         <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3436,7 +3444,7 @@
         <v>79</v>
       </c>
       <c r="B204" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3444,7 +3452,7 @@
         <v>175</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3452,7 +3460,7 @@
         <v>176</v>
       </c>
       <c r="B206" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3460,7 +3468,7 @@
         <v>177</v>
       </c>
       <c r="B207" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3468,7 +3476,7 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3476,7 +3484,7 @@
         <v>26</v>
       </c>
       <c r="B209" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3484,20 +3492,23 @@
         <v>178</v>
       </c>
       <c r="B210" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>179</v>
       </c>
+      <c r="B211" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>180</v>
       </c>
       <c r="B212" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3505,7 +3516,7 @@
         <v>181</v>
       </c>
       <c r="B213" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3513,7 +3524,7 @@
         <v>182</v>
       </c>
       <c r="B214" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3521,7 +3532,7 @@
         <v>183</v>
       </c>
       <c r="B215" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3529,7 +3540,7 @@
         <v>184</v>
       </c>
       <c r="B216" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3537,7 +3548,7 @@
         <v>79</v>
       </c>
       <c r="B217" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -3545,7 +3556,7 @@
         <v>185</v>
       </c>
       <c r="B218" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3553,7 +3564,7 @@
         <v>186</v>
       </c>
       <c r="B219" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3561,7 +3572,7 @@
         <v>187</v>
       </c>
       <c r="B220" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -3569,7 +3580,7 @@
         <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -3577,7 +3588,7 @@
         <v>188</v>
       </c>
       <c r="B222" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3585,7 +3596,7 @@
         <v>189</v>
       </c>
       <c r="B223" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3593,7 +3604,7 @@
         <v>190</v>
       </c>
       <c r="B224" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -3601,7 +3612,7 @@
         <v>191</v>
       </c>
       <c r="B225" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -3609,7 +3620,7 @@
         <v>192</v>
       </c>
       <c r="B226" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -3617,7 +3628,7 @@
         <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -3625,7 +3636,7 @@
         <v>134</v>
       </c>
       <c r="B228" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -3633,7 +3644,7 @@
         <v>193</v>
       </c>
       <c r="B229" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -3641,7 +3652,7 @@
         <v>75</v>
       </c>
       <c r="B230" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -3649,7 +3660,7 @@
         <v>194</v>
       </c>
       <c r="B231" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -3657,7 +3668,7 @@
         <v>195</v>
       </c>
       <c r="B232" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3665,7 +3676,7 @@
         <v>196</v>
       </c>
       <c r="B233" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3673,7 +3684,7 @@
         <v>114</v>
       </c>
       <c r="B234" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -3681,7 +3692,7 @@
         <v>26</v>
       </c>
       <c r="B235" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -3689,7 +3700,7 @@
         <v>197</v>
       </c>
       <c r="B236" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -3697,7 +3708,7 @@
         <v>198</v>
       </c>
       <c r="B237" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -3705,7 +3716,7 @@
         <v>79</v>
       </c>
       <c r="B238" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -3713,7 +3724,7 @@
         <v>199</v>
       </c>
       <c r="B239" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -3721,7 +3732,7 @@
         <v>200</v>
       </c>
       <c r="B240" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -3729,7 +3740,7 @@
         <v>201</v>
       </c>
       <c r="B241" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -3737,7 +3748,7 @@
         <v>202</v>
       </c>
       <c r="B242" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3745,7 +3756,7 @@
         <v>203</v>
       </c>
       <c r="B243" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -3753,7 +3764,7 @@
         <v>204</v>
       </c>
       <c r="B244" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -3761,7 +3772,7 @@
         <v>26</v>
       </c>
       <c r="B245" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -3769,7 +3780,7 @@
         <v>205</v>
       </c>
       <c r="B246" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -3777,7 +3788,7 @@
         <v>206</v>
       </c>
       <c r="B247" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -3785,7 +3796,7 @@
         <v>207</v>
       </c>
       <c r="B248" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -3793,7 +3804,7 @@
         <v>208</v>
       </c>
       <c r="B249" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -3801,7 +3812,7 @@
         <v>209</v>
       </c>
       <c r="B250" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -3809,7 +3820,7 @@
         <v>210</v>
       </c>
       <c r="B251" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -3817,7 +3828,7 @@
         <v>211</v>
       </c>
       <c r="B252" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -3825,7 +3836,7 @@
         <v>29</v>
       </c>
       <c r="B253" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -3833,7 +3844,7 @@
         <v>212</v>
       </c>
       <c r="B254" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -3841,7 +3852,7 @@
         <v>213</v>
       </c>
       <c r="B255" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -3849,7 +3860,7 @@
         <v>214</v>
       </c>
       <c r="B256" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -3857,7 +3868,7 @@
         <v>215</v>
       </c>
       <c r="B257" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -3865,7 +3876,7 @@
         <v>216</v>
       </c>
       <c r="B258" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -3873,7 +3884,7 @@
         <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -3881,7 +3892,7 @@
         <v>217</v>
       </c>
       <c r="B260" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -3889,7 +3900,7 @@
         <v>218</v>
       </c>
       <c r="B261" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -3897,7 +3908,7 @@
         <v>219</v>
       </c>
       <c r="B262" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -3905,7 +3916,7 @@
         <v>220</v>
       </c>
       <c r="B263" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -3913,7 +3924,7 @@
         <v>221</v>
       </c>
       <c r="B264" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -3921,7 +3932,7 @@
         <v>222</v>
       </c>
       <c r="B265" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -3929,7 +3940,7 @@
         <v>223</v>
       </c>
       <c r="B266" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -3937,7 +3948,7 @@
         <v>224</v>
       </c>
       <c r="B267" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -3945,7 +3956,7 @@
         <v>225</v>
       </c>
       <c r="B268" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -3953,7 +3964,7 @@
         <v>226</v>
       </c>
       <c r="B269" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -3961,7 +3972,7 @@
         <v>227</v>
       </c>
       <c r="B270" t="s">
-        <v>406</v>
+        <v>258</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -3969,7 +3980,7 @@
         <v>228</v>
       </c>
       <c r="B271" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -3977,7 +3988,7 @@
         <v>229</v>
       </c>
       <c r="B272" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -3985,7 +3996,7 @@
         <v>187</v>
       </c>
       <c r="B273" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -3993,7 +4004,7 @@
         <v>230</v>
       </c>
       <c r="B274" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4001,7 +4012,7 @@
         <v>231</v>
       </c>
       <c r="B275" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4009,7 +4020,7 @@
         <v>232</v>
       </c>
       <c r="B276" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4017,7 +4028,7 @@
         <v>233</v>
       </c>
       <c r="B277" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4025,7 +4036,7 @@
         <v>234</v>
       </c>
       <c r="B278" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4033,7 +4044,7 @@
         <v>235</v>
       </c>
       <c r="B279" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4041,7 +4052,7 @@
         <v>29</v>
       </c>
       <c r="B280" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4049,7 +4060,7 @@
         <v>29</v>
       </c>
       <c r="B281" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4057,7 +4068,7 @@
         <v>79</v>
       </c>
       <c r="B282" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4065,7 +4076,7 @@
         <v>236</v>
       </c>
       <c r="B283" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4073,7 +4084,7 @@
         <v>237</v>
       </c>
       <c r="B284" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4081,7 +4092,7 @@
         <v>238</v>
       </c>
       <c r="B285" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4089,7 +4100,7 @@
         <v>239</v>
       </c>
       <c r="B286" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4097,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="B287" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4105,7 +4116,7 @@
         <v>240</v>
       </c>
       <c r="B288" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4113,7 +4124,7 @@
         <v>241</v>
       </c>
       <c r="B289" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4121,7 +4132,7 @@
         <v>242</v>
       </c>
       <c r="B290" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4129,7 +4140,7 @@
         <v>243</v>
       </c>
       <c r="B291" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4137,7 +4148,7 @@
         <v>27</v>
       </c>
       <c r="B292" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4145,7 +4156,7 @@
         <v>79</v>
       </c>
       <c r="B293" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4153,7 +4164,7 @@
         <v>244</v>
       </c>
       <c r="B294" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -4161,7 +4172,7 @@
         <v>29</v>
       </c>
       <c r="B295" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4169,7 +4180,7 @@
         <v>245</v>
       </c>
       <c r="B296" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4177,7 +4188,7 @@
         <v>246</v>
       </c>
       <c r="B297" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4185,7 +4196,7 @@
         <v>247</v>
       </c>
       <c r="B298" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -4193,7 +4204,7 @@
         <v>248</v>
       </c>
       <c r="B299" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -4201,7 +4212,7 @@
         <v>249</v>
       </c>
       <c r="B300" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4209,7 +4220,7 @@
         <v>250</v>
       </c>
       <c r="B301" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4226,1020 +4237,1628 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="128.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="B24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="B25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>297</v>
+      </c>
+      <c r="B45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>298</v>
+      </c>
+      <c r="B46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>304</v>
+      </c>
+      <c r="B53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>306</v>
+      </c>
+      <c r="B55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>316</v>
+      </c>
+      <c r="B66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>318</v>
+      </c>
+      <c r="B68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>321</v>
+      </c>
+      <c r="B71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>322</v>
+      </c>
+      <c r="B72" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>324</v>
+      </c>
+      <c r="B74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>327</v>
+      </c>
+      <c r="B77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>252</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>337</v>
+      </c>
+      <c r="B89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>340</v>
+      </c>
+      <c r="B92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>343</v>
+      </c>
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>344</v>
+      </c>
+      <c r="B97" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>345</v>
+      </c>
+      <c r="B98" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>348</v>
+      </c>
+      <c r="B101" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>350</v>
+      </c>
+      <c r="B103" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>282</v>
+      </c>
+      <c r="B107" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>263</v>
+      </c>
+      <c r="B110" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>354</v>
+      </c>
+      <c r="B111" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>355</v>
+      </c>
+      <c r="B112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>356</v>
+      </c>
+      <c r="B113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>357</v>
+      </c>
+      <c r="B114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>358</v>
+      </c>
+      <c r="B115" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>359</v>
+      </c>
+      <c r="B116" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>360</v>
+      </c>
+      <c r="B117" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>362</v>
+      </c>
+      <c r="B119" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>363</v>
+      </c>
+      <c r="B120" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>364</v>
+      </c>
+      <c r="B122" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>253</v>
+      </c>
+      <c r="B125" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>366</v>
+      </c>
+      <c r="B126" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>367</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>368</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>370</v>
+      </c>
+      <c r="B133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>291</v>
+      </c>
+      <c r="B135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>286</v>
+      </c>
+      <c r="B136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>373</v>
+      </c>
+      <c r="B139" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>374</v>
+      </c>
+      <c r="B140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>375</v>
+      </c>
+      <c r="B141" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>376</v>
+      </c>
+      <c r="B142" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>377</v>
+      </c>
+      <c r="B143" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>378</v>
+      </c>
+      <c r="B144" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>379</v>
+      </c>
+      <c r="B145" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>378</v>
+      </c>
+      <c r="B146" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>380</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>274</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>286</v>
+      </c>
+      <c r="B149" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>381</v>
+      </c>
+      <c r="B150" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>382</v>
+      </c>
+      <c r="B151" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>383</v>
+      </c>
+      <c r="B152" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>384</v>
+      </c>
+      <c r="B153" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>385</v>
+      </c>
+      <c r="B154" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>386</v>
+      </c>
+      <c r="B155" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B156" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>388</v>
+      </c>
+      <c r="B157" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>389</v>
+      </c>
+      <c r="B158" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>390</v>
+      </c>
+      <c r="B159" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>68</v>
+      </c>
+      <c r="B160" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>391</v>
+      </c>
+      <c r="B161" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>392</v>
+      </c>
+      <c r="B162" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>378</v>
+      </c>
+      <c r="B163" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>393</v>
+      </c>
+      <c r="B164" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>394</v>
+      </c>
+      <c r="B165" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>395</v>
+      </c>
+      <c r="B166" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>396</v>
+      </c>
+      <c r="B167" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>274</v>
+      </c>
+      <c r="B168" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>397</v>
+      </c>
+      <c r="B169" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>255</v>
+      </c>
+      <c r="B170" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>398</v>
+      </c>
+      <c r="B171" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>399</v>
+      </c>
+      <c r="B172" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>260</v>
+      </c>
+      <c r="B174" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>400</v>
+      </c>
+      <c r="B175" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>401</v>
+      </c>
+      <c r="B176" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>402</v>
+      </c>
+      <c r="B177" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>274</v>
+      </c>
+      <c r="B178" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>403</v>
+      </c>
+      <c r="B180" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>404</v>
+      </c>
+      <c r="B181" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>286</v>
+      </c>
+      <c r="B182" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>286</v>
+      </c>
+      <c r="B183" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>405</v>
+      </c>
+      <c r="B184" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>406</v>
+      </c>
+      <c r="B185" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>407</v>
+      </c>
+      <c r="B186" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>361</v>
+      </c>
+      <c r="B187" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>408</v>
+      </c>
+      <c r="B188" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>409</v>
+      </c>
+      <c r="B190" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>410</v>
+      </c>
+      <c r="B191" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>411</v>
+      </c>
+      <c r="B192" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="B194" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="B195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="B196" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="B197" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="B198" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="B199" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="B200" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>404</v>
+        <v>418</v>
+      </c>
+      <c r="B201" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A141" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A156" r:id="rId1" xr:uid="{F632BCC0-0075-4BA2-B6A1-D5B5A0EDED05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
